--- a/app/static/files/Churn Prediction Template.xlsx
+++ b/app/static/files/Churn Prediction Template.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">TotalCharges</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,12 +169,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -227,8 +221,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,14 +235,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,191 +258,191 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="2" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -480,8 +470,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,63 +483,63 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
